--- a/File2.xlsx.xlsx
+++ b/File2.xlsx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>lkjfd</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>fef</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -363,14 +366,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:F17"/>
+  <dimension ref="C4:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>0</v>
